--- a/atlas-viz/fluorish-artworks-0209.xlsx
+++ b/atlas-viz/fluorish-artworks-0209.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/CReTe - PRIN/web-catalogue/atlas-viz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A4D70-5156-5E43-8970-5A661438AC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6D6CF8-33D0-EE44-A488-B9F934D3B1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1108,6 +1108,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1452,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H371"/>
+  <dimension ref="A1:I371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D371"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="I372" sqref="I372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1463,11 +1464,12 @@
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="82.5" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1518,8 +1520,12 @@
       <c r="H2">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="str">
+        <f>CONCATENATE("https://c-re-te.github.io/web-catalogue/schede/", A2, ".html")</f>
+        <v>https://c-re-te.github.io/web-catalogue/schede/1.html</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1544,8 +1550,12 @@
       <c r="H3">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="0">CONCATENATE("https://c-re-te.github.io/web-catalogue/schede/", A3, ".html")</f>
+        <v>https://c-re-te.github.io/web-catalogue/schede/2.html</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1570,8 +1580,12 @@
       <c r="H4">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/3.html</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1596,8 +1610,12 @@
       <c r="H5">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/4.html</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1622,8 +1640,12 @@
       <c r="H6">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/5.html</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1648,8 +1670,12 @@
       <c r="H7">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/6.html</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1674,8 +1700,12 @@
       <c r="H8">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/7.html</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1700,8 +1730,12 @@
       <c r="H9">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/8.html</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1726,8 +1760,12 @@
       <c r="H10">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/9.html</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1752,8 +1790,12 @@
       <c r="H11">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/10.html</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1778,8 +1820,12 @@
       <c r="H12">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/11.html</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1804,8 +1850,12 @@
       <c r="H13">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/12.html</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1830,8 +1880,12 @@
       <c r="H14">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/13.html</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1856,8 +1910,12 @@
       <c r="H15">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/14.html</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1882,8 +1940,12 @@
       <c r="H16">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/15.html</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1908,8 +1970,12 @@
       <c r="H17">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/16.html</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1934,8 +2000,12 @@
       <c r="H18">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/17.html</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1960,8 +2030,12 @@
       <c r="H19">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/18.html</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1986,8 +2060,12 @@
       <c r="H20">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/19.html</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2012,8 +2090,12 @@
       <c r="H21">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/20.html</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2038,8 +2120,12 @@
       <c r="H22">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/21.html</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2064,8 +2150,12 @@
       <c r="H23">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/22.html</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2090,8 +2180,12 @@
       <c r="H24">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/23.html</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2116,8 +2210,12 @@
       <c r="H25">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/24.html</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2142,8 +2240,12 @@
       <c r="H26">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/25.html</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2168,8 +2270,12 @@
       <c r="H27">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/27.html</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2194,8 +2300,12 @@
       <c r="H28">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/28.html</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -2220,8 +2330,12 @@
       <c r="H29">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/29.html</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2246,8 +2360,12 @@
       <c r="H30">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/30.html</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -2272,8 +2390,12 @@
       <c r="H31">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/31.html</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -2298,8 +2420,12 @@
       <c r="H32">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/32.html</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2324,8 +2450,12 @@
       <c r="H33">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/33.html</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2350,8 +2480,12 @@
       <c r="H34">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/34.html</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2376,8 +2510,12 @@
       <c r="H35">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/35.html</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -2402,8 +2540,12 @@
       <c r="H36">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/36.html</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2428,8 +2570,12 @@
       <c r="H37">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/37.html</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2454,8 +2600,12 @@
       <c r="H38">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/38.html</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2480,8 +2630,12 @@
       <c r="H39">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/39.html</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2506,8 +2660,12 @@
       <c r="H40">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/40.html</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2532,8 +2690,12 @@
       <c r="H41">
         <v>9.6667000000000005</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/41.html</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2558,8 +2720,12 @@
       <c r="H42">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/42.html</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -2584,8 +2750,12 @@
       <c r="H43">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/43.html</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -2610,8 +2780,12 @@
       <c r="H44">
         <v>9.7667000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/44.html</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -2636,8 +2810,12 @@
       <c r="H45">
         <v>10.416700000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/45.html</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -2662,8 +2840,12 @@
       <c r="H46">
         <v>10.416700000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/46.html</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -2688,8 +2870,12 @@
       <c r="H47">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/47.html</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -2714,8 +2900,12 @@
       <c r="H48">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/48.html</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2740,8 +2930,12 @@
       <c r="H49">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/49.html</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2766,8 +2960,12 @@
       <c r="H50">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/50.html</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -2792,8 +2990,12 @@
       <c r="H51">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/51.html</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2818,8 +3020,12 @@
       <c r="H52">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/52.html</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2844,8 +3050,12 @@
       <c r="H53">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/53.html</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -2870,8 +3080,12 @@
       <c r="H54">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/54.html</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -2896,8 +3110,12 @@
       <c r="H55">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/55.html</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -2922,8 +3140,12 @@
       <c r="H56">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/56.html</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -2948,8 +3170,12 @@
       <c r="H57">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/57.html</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -2974,8 +3200,12 @@
       <c r="H58">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/58.html</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3000,8 +3230,12 @@
       <c r="H59">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/59.html</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3026,8 +3260,12 @@
       <c r="H60">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/60.html</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -3052,8 +3290,12 @@
       <c r="H61">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/61.html</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -3078,8 +3320,12 @@
       <c r="H62">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/62.html</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -3104,8 +3350,12 @@
       <c r="H63">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/63.html</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -3130,8 +3380,12 @@
       <c r="H64">
         <v>9.7667000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/64.html</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -3156,8 +3410,12 @@
       <c r="H65">
         <v>9.7667000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/65.html</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -3182,8 +3440,12 @@
       <c r="H66">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/66.html</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -3208,8 +3470,12 @@
       <c r="H67">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I130" si="1">CONCATENATE("https://c-re-te.github.io/web-catalogue/schede/", A67, ".html")</f>
+        <v>https://c-re-te.github.io/web-catalogue/schede/67.html</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -3234,8 +3500,12 @@
       <c r="H68">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/68.html</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -3260,8 +3530,12 @@
       <c r="H69">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/69.html</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -3286,8 +3560,12 @@
       <c r="H70">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/70.html</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -3312,8 +3590,12 @@
       <c r="H71">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/71.html</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -3338,8 +3620,12 @@
       <c r="H72">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/72.html</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -3364,8 +3650,12 @@
       <c r="H73">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/73.html</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -3390,8 +3680,12 @@
       <c r="H74">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/74.html</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -3416,8 +3710,12 @@
       <c r="H75">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/75.html</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -3442,8 +3740,12 @@
       <c r="H76">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/76.html</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -3468,8 +3770,12 @@
       <c r="H77">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/77.html</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3494,8 +3800,12 @@
       <c r="H78">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/78.html</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -3520,8 +3830,12 @@
       <c r="H79">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/79.html</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3546,8 +3860,12 @@
       <c r="H80">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/80.html</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -3572,8 +3890,12 @@
       <c r="H81">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/81.html</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -3598,8 +3920,12 @@
       <c r="H82">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/82.html</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -3624,8 +3950,12 @@
       <c r="H83">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/83.html</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -3650,8 +3980,12 @@
       <c r="H84">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/84.html</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -3676,8 +4010,12 @@
       <c r="H85">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/85.html</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -3702,8 +4040,12 @@
       <c r="H86">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/86.html</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -3728,8 +4070,12 @@
       <c r="H87">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/87.html</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -3754,8 +4100,12 @@
       <c r="H88">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/88.html</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -3780,8 +4130,12 @@
       <c r="H89">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/89.html</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -3806,8 +4160,12 @@
       <c r="H90">
         <v>9.6166999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/90.html</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -3832,8 +4190,12 @@
       <c r="H91">
         <v>9.6667000000000005</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/91.html</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -3858,8 +4220,12 @@
       <c r="H92">
         <v>9.6818000000000008</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/92.html</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -3884,8 +4250,12 @@
       <c r="H93">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/93.html</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -3910,8 +4280,12 @@
       <c r="H94">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/94.html</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -3936,8 +4310,12 @@
       <c r="H95">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/95.html</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -3962,8 +4340,12 @@
       <c r="H96">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/96.html</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -3988,8 +4370,12 @@
       <c r="H97">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/97.html</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4014,8 +4400,12 @@
       <c r="H98">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/98.html</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4040,8 +4430,12 @@
       <c r="H99">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/99.html</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4066,8 +4460,12 @@
       <c r="H100">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/100.html</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4092,8 +4490,12 @@
       <c r="H101">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/101.html</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -4118,8 +4520,12 @@
       <c r="H102">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/102.html</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>103</v>
       </c>
@@ -4144,8 +4550,12 @@
       <c r="H103">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/103.html</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>104</v>
       </c>
@@ -4170,8 +4580,12 @@
       <c r="H104">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/104.html</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>105</v>
       </c>
@@ -4196,8 +4610,12 @@
       <c r="H105">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/105.html</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>108</v>
       </c>
@@ -4222,8 +4640,12 @@
       <c r="H106">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/108.html</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>109</v>
       </c>
@@ -4248,8 +4670,12 @@
       <c r="H107">
         <v>10.04208</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/109.html</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>110</v>
       </c>
@@ -4274,8 +4700,12 @@
       <c r="H108">
         <v>11.42079</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/110.html</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>111</v>
       </c>
@@ -4300,8 +4730,12 @@
       <c r="H109">
         <v>2.3488000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/111.html</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -4326,8 +4760,12 @@
       <c r="H110">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/113.html</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -4352,8 +4790,12 @@
       <c r="H111">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/114.html</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -4378,8 +4820,12 @@
       <c r="H112">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/115.html</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -4404,8 +4850,12 @@
       <c r="H113">
         <v>12.5808</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/116.html</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -4430,8 +4880,12 @@
       <c r="H114">
         <v>9.7667000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/117.html</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>118</v>
       </c>
@@ -4456,8 +4910,12 @@
       <c r="H115">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/118.html</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -4482,8 +4940,12 @@
       <c r="H116">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/119.html</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -4508,8 +4970,12 @@
       <c r="H117">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/120.html</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -4534,8 +5000,12 @@
       <c r="H118">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/121.html</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>122</v>
       </c>
@@ -4560,8 +5030,12 @@
       <c r="H119">
         <v>11.916700000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/122.html</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>123</v>
       </c>
@@ -4586,8 +5060,12 @@
       <c r="H120">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/123.html</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>124</v>
       </c>
@@ -4612,8 +5090,12 @@
       <c r="H121">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/124.html</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>125</v>
       </c>
@@ -4638,8 +5120,12 @@
       <c r="H122">
         <v>12.481299999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/125.html</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>126</v>
       </c>
@@ -4664,8 +5150,12 @@
       <c r="H123">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/126.html</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>127</v>
       </c>
@@ -4690,8 +5180,12 @@
       <c r="H124">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/127.html</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>128</v>
       </c>
@@ -4716,8 +5210,12 @@
       <c r="H125">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/128.html</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>129</v>
       </c>
@@ -4742,8 +5240,12 @@
       <c r="H126">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/129.html</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>130</v>
       </c>
@@ -4768,8 +5270,12 @@
       <c r="H127">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/130.html</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>131</v>
       </c>
@@ -4794,8 +5300,12 @@
       <c r="H128">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/131.html</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>132</v>
       </c>
@@ -4820,8 +5330,12 @@
       <c r="H129">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/132.html</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>133</v>
       </c>
@@ -4846,8 +5360,12 @@
       <c r="H130">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" t="str">
+        <f t="shared" si="1"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/133.html</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>134</v>
       </c>
@@ -4872,8 +5390,12 @@
       <c r="H131">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" t="str">
+        <f t="shared" ref="I131:I194" si="2">CONCATENATE("https://c-re-te.github.io/web-catalogue/schede/", A131, ".html")</f>
+        <v>https://c-re-te.github.io/web-catalogue/schede/134.html</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>135</v>
       </c>
@@ -4898,8 +5420,12 @@
       <c r="H132">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/135.html</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>136</v>
       </c>
@@ -4924,8 +5450,12 @@
       <c r="H133">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/136.html</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>137</v>
       </c>
@@ -4950,8 +5480,12 @@
       <c r="H134">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/137.html</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>138</v>
       </c>
@@ -4976,8 +5510,12 @@
       <c r="H135">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/138.html</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>139</v>
       </c>
@@ -5002,8 +5540,12 @@
       <c r="H136">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/139.html</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>140</v>
       </c>
@@ -5028,8 +5570,12 @@
       <c r="H137">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/140.html</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>141</v>
       </c>
@@ -5054,8 +5600,12 @@
       <c r="H138">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/141.html</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>142</v>
       </c>
@@ -5080,8 +5630,12 @@
       <c r="H139">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/142.html</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>143</v>
       </c>
@@ -5106,8 +5660,12 @@
       <c r="H140">
         <v>9.8666999999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/143.html</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>144</v>
       </c>
@@ -5132,8 +5690,12 @@
       <c r="H141">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/144.html</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>145</v>
       </c>
@@ -5158,8 +5720,12 @@
       <c r="H142">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/145.html</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>146</v>
       </c>
@@ -5184,8 +5750,12 @@
       <c r="H143">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/146.html</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>147</v>
       </c>
@@ -5210,8 +5780,12 @@
       <c r="H144">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/147.html</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>148</v>
       </c>
@@ -5236,8 +5810,12 @@
       <c r="H145">
         <v>10.04208</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/148.html</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>149</v>
       </c>
@@ -5262,8 +5840,12 @@
       <c r="H146">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/149.html</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>150</v>
       </c>
@@ -5288,8 +5870,12 @@
       <c r="H147">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/150.html</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>151</v>
       </c>
@@ -5314,8 +5900,12 @@
       <c r="H148">
         <v>10.033300000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/151.html</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>152</v>
       </c>
@@ -5340,8 +5930,12 @@
       <c r="H149">
         <v>10.566700000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/152.html</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>153</v>
       </c>
@@ -5366,8 +5960,12 @@
       <c r="H150">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/153.html</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>154</v>
       </c>
@@ -5392,8 +5990,12 @@
       <c r="H151">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/154.html</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>155</v>
       </c>
@@ -5418,8 +6020,12 @@
       <c r="H152">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/155.html</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>156</v>
       </c>
@@ -5444,8 +6050,12 @@
       <c r="H153">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/156.html</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>157</v>
       </c>
@@ -5470,8 +6080,12 @@
       <c r="H154">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/157.html</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>159</v>
       </c>
@@ -5496,8 +6110,12 @@
       <c r="H155">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/159.html</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>160</v>
       </c>
@@ -5522,8 +6140,12 @@
       <c r="H156">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/160.html</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>161</v>
       </c>
@@ -5548,8 +6170,12 @@
       <c r="H157">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/161.html</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>162</v>
       </c>
@@ -5574,8 +6200,12 @@
       <c r="H158">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/162.html</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>163</v>
       </c>
@@ -5600,8 +6230,12 @@
       <c r="H159">
         <v>10.87327</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/163.html</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>164</v>
       </c>
@@ -5626,8 +6260,12 @@
       <c r="H160">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/164.html</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>165</v>
       </c>
@@ -5652,8 +6290,12 @@
       <c r="H161">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/165.html</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>166</v>
       </c>
@@ -5678,8 +6320,12 @@
       <c r="H162">
         <v>11.25329</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/166.html</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>167</v>
       </c>
@@ -5704,8 +6350,12 @@
       <c r="H163">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/167.html</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>168</v>
       </c>
@@ -5730,8 +6380,12 @@
       <c r="H164">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/168.html</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>169</v>
       </c>
@@ -5756,8 +6410,12 @@
       <c r="H165">
         <v>10.566700000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/169.html</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>170</v>
       </c>
@@ -5782,8 +6440,12 @@
       <c r="H166">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/170.html</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>171</v>
       </c>
@@ -5808,8 +6470,12 @@
       <c r="H167">
         <v>10.333299999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/171.html</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>172</v>
       </c>
@@ -5834,8 +6500,12 @@
       <c r="H168">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/172.html</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>173</v>
       </c>
@@ -5860,8 +6530,12 @@
       <c r="H169">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/173.html</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>174</v>
       </c>
@@ -5886,8 +6560,12 @@
       <c r="H170">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/174.html</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>175</v>
       </c>
@@ -5912,8 +6590,12 @@
       <c r="H171">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/175.html</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>176</v>
       </c>
@@ -5938,8 +6620,12 @@
       <c r="H172">
         <v>10.9833</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/176.html</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>177</v>
       </c>
@@ -5964,8 +6650,12 @@
       <c r="H173">
         <v>10.515499999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/177.html</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>178</v>
       </c>
@@ -5990,8 +6680,12 @@
       <c r="H174">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/178.html</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>179</v>
       </c>
@@ -6016,8 +6710,12 @@
       <c r="H175">
         <v>10.859690000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/179.html</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>180</v>
       </c>
@@ -6042,8 +6740,12 @@
       <c r="H176">
         <v>10.9833</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/180.html</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>182</v>
       </c>
@@ -6068,8 +6770,12 @@
       <c r="H177">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/182.html</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>183</v>
       </c>
@@ -6094,8 +6800,12 @@
       <c r="H178">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/183.html</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>184</v>
       </c>
@@ -6120,8 +6830,12 @@
       <c r="H179">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/184.html</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>185</v>
       </c>
@@ -6146,8 +6860,12 @@
       <c r="H180">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/185.html</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>186</v>
       </c>
@@ -6172,8 +6890,12 @@
       <c r="H181">
         <v>2.3488000000000002</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/186.html</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>187</v>
       </c>
@@ -6198,8 +6920,12 @@
       <c r="H182">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/187.html</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>188</v>
       </c>
@@ -6224,8 +6950,12 @@
       <c r="H183">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/188.html</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>189</v>
       </c>
@@ -6250,8 +6980,12 @@
       <c r="H184">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/189.html</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>190</v>
       </c>
@@ -6276,8 +7010,12 @@
       <c r="H185">
         <v>10.820589999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/190.html</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>191</v>
       </c>
@@ -6302,8 +7040,12 @@
       <c r="H186">
         <v>2.3488000000000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/191.html</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>192</v>
       </c>
@@ -6328,8 +7070,12 @@
       <c r="H187">
         <v>10.719889999999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/192.html</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>193</v>
       </c>
@@ -6354,8 +7100,12 @@
       <c r="H188">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/193.html</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>194</v>
       </c>
@@ -6380,8 +7130,12 @@
       <c r="H189">
         <v>10.783300000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/194.html</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>195</v>
       </c>
@@ -6406,8 +7160,12 @@
       <c r="H190">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/195.html</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>196</v>
       </c>
@@ -6432,8 +7190,12 @@
       <c r="H191">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/196.html</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>197</v>
       </c>
@@ -6458,8 +7220,12 @@
       <c r="H192">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/197.html</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>198</v>
       </c>
@@ -6484,8 +7250,12 @@
       <c r="H193">
         <v>10.7456</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/198.html</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>199</v>
       </c>
@@ -6510,8 +7280,12 @@
       <c r="H194">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" t="str">
+        <f t="shared" si="2"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/199.html</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>200</v>
       </c>
@@ -6536,8 +7310,12 @@
       <c r="H195">
         <v>11.1167</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" t="str">
+        <f t="shared" ref="I195:I258" si="3">CONCATENATE("https://c-re-te.github.io/web-catalogue/schede/", A195, ".html")</f>
+        <v>https://c-re-te.github.io/web-catalogue/schede/200.html</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>201</v>
       </c>
@@ -6562,8 +7340,12 @@
       <c r="H196">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/201.html</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>203</v>
       </c>
@@ -6588,8 +7370,12 @@
       <c r="H197">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/203.html</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>204</v>
       </c>
@@ -6614,8 +7400,12 @@
       <c r="H198">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/204.html</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>205</v>
       </c>
@@ -6640,8 +7430,12 @@
       <c r="H199">
         <v>10.859690000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/205.html</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>206</v>
       </c>
@@ -6666,8 +7460,12 @@
       <c r="H200">
         <v>10.641249999999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/206.html</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>208</v>
       </c>
@@ -6692,8 +7490,12 @@
       <c r="H201">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/208.html</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>210</v>
       </c>
@@ -6718,8 +7520,12 @@
       <c r="H202">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/210.html</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>211</v>
       </c>
@@ -6744,8 +7550,12 @@
       <c r="H203">
         <v>10.416700000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/211.html</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>212</v>
       </c>
@@ -6770,8 +7580,12 @@
       <c r="H204">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/212.html</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>213</v>
       </c>
@@ -6796,8 +7610,12 @@
       <c r="H205">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/213.html</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>214</v>
       </c>
@@ -6822,8 +7640,12 @@
       <c r="H206">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/214.html</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>215</v>
       </c>
@@ -6848,8 +7670,12 @@
       <c r="H207">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/215.html</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>216</v>
       </c>
@@ -6874,8 +7700,12 @@
       <c r="H208">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/216.html</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>217</v>
       </c>
@@ -6900,8 +7730,12 @@
       <c r="H209">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/217.html</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>218</v>
       </c>
@@ -6926,8 +7760,12 @@
       <c r="H210">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/218.html</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>219</v>
       </c>
@@ -6952,8 +7790,12 @@
       <c r="H211">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/219.html</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>220</v>
       </c>
@@ -6978,8 +7820,12 @@
       <c r="H212">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/220.html</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>221</v>
       </c>
@@ -7004,8 +7850,12 @@
       <c r="H213">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/221.html</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>222</v>
       </c>
@@ -7030,8 +7880,12 @@
       <c r="H214">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/222.html</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>223</v>
       </c>
@@ -7056,8 +7910,12 @@
       <c r="H215">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/223.html</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>224</v>
       </c>
@@ -7082,8 +7940,12 @@
       <c r="H216">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/224.html</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>225</v>
       </c>
@@ -7108,8 +7970,12 @@
       <c r="H217">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/225.html</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>226</v>
       </c>
@@ -7134,8 +8000,12 @@
       <c r="H218">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/226.html</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>227</v>
       </c>
@@ -7160,8 +8030,12 @@
       <c r="H219">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/227.html</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>228</v>
       </c>
@@ -7186,8 +8060,12 @@
       <c r="H220">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/228.html</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>229</v>
       </c>
@@ -7212,8 +8090,12 @@
       <c r="H221">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/229.html</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>230</v>
       </c>
@@ -7238,8 +8120,12 @@
       <c r="H222">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/230.html</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>231</v>
       </c>
@@ -7264,8 +8150,12 @@
       <c r="H223">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/231.html</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>232</v>
       </c>
@@ -7290,8 +8180,12 @@
       <c r="H224">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/232.html</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>233</v>
       </c>
@@ -7316,8 +8210,12 @@
       <c r="H225">
         <v>10.51308</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/233.html</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>234</v>
       </c>
@@ -7342,8 +8240,12 @@
       <c r="H226">
         <v>10.51308</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/234.html</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>235</v>
       </c>
@@ -7368,8 +8270,12 @@
       <c r="H227">
         <v>10.51308</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/235.html</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>236</v>
       </c>
@@ -7394,8 +8300,12 @@
       <c r="H228">
         <v>10.51308</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/236.html</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>237</v>
       </c>
@@ -7420,8 +8330,12 @@
       <c r="H229">
         <v>10.51308</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/237.html</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>238</v>
       </c>
@@ -7446,8 +8360,12 @@
       <c r="H230">
         <v>10.51308</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/238.html</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>239</v>
       </c>
@@ -7472,8 +8390,12 @@
       <c r="H231">
         <v>10.51308</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/239.html</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>240</v>
       </c>
@@ -7498,8 +8420,12 @@
       <c r="H232">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/240.html</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>241</v>
       </c>
@@ -7524,8 +8450,12 @@
       <c r="H233">
         <v>10.5167</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/241.html</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>242</v>
       </c>
@@ -7550,8 +8480,12 @@
       <c r="H234">
         <v>11.1167</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/242.html</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>243</v>
       </c>
@@ -7576,8 +8510,12 @@
       <c r="H235">
         <v>10.87327</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/243.html</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>244</v>
       </c>
@@ -7602,8 +8540,12 @@
       <c r="H236">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/244.html</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>245</v>
       </c>
@@ -7628,8 +8570,12 @@
       <c r="H237">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/245.html</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>246</v>
       </c>
@@ -7654,8 +8600,12 @@
       <c r="H238">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/246.html</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>247</v>
       </c>
@@ -7680,8 +8630,12 @@
       <c r="H239">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/247.html</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>248</v>
       </c>
@@ -7706,8 +8660,12 @@
       <c r="H240">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/248.html</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>249</v>
       </c>
@@ -7732,8 +8690,12 @@
       <c r="H241">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/249.html</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>250</v>
       </c>
@@ -7758,8 +8720,12 @@
       <c r="H242">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/250.html</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>251</v>
       </c>
@@ -7784,8 +8750,12 @@
       <c r="H243">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/251.html</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>252</v>
       </c>
@@ -7810,8 +8780,12 @@
       <c r="H244">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/252.html</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>253</v>
       </c>
@@ -7836,8 +8810,12 @@
       <c r="H245">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/253.html</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>254</v>
       </c>
@@ -7862,8 +8840,12 @@
       <c r="H246">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/254.html</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>255</v>
       </c>
@@ -7888,8 +8870,12 @@
       <c r="H247">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/255.html</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>256</v>
       </c>
@@ -7914,8 +8900,12 @@
       <c r="H248">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/256.html</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>257</v>
       </c>
@@ -7940,8 +8930,12 @@
       <c r="H249">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/257.html</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>258</v>
       </c>
@@ -7966,8 +8960,12 @@
       <c r="H250">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/258.html</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>259</v>
       </c>
@@ -7992,8 +8990,12 @@
       <c r="H251">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/259.html</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>260</v>
       </c>
@@ -8018,8 +9020,12 @@
       <c r="H252">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/260.html</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>261</v>
       </c>
@@ -8044,8 +9050,12 @@
       <c r="H253">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/261.html</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>262</v>
       </c>
@@ -8070,8 +9080,12 @@
       <c r="H254">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/262.html</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>263</v>
       </c>
@@ -8096,8 +9110,12 @@
       <c r="H255">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/263.html</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>264</v>
       </c>
@@ -8122,8 +9140,12 @@
       <c r="H256">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/264.html</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>265</v>
       </c>
@@ -8148,8 +9170,12 @@
       <c r="H257">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/265.html</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>266</v>
       </c>
@@ -8174,8 +9200,12 @@
       <c r="H258">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I258" t="str">
+        <f t="shared" si="3"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/266.html</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>267</v>
       </c>
@@ -8200,8 +9230,12 @@
       <c r="H259">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I259" t="str">
+        <f t="shared" ref="I259:I322" si="4">CONCATENATE("https://c-re-te.github.io/web-catalogue/schede/", A259, ".html")</f>
+        <v>https://c-re-te.github.io/web-catalogue/schede/267.html</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>268</v>
       </c>
@@ -8226,8 +9260,12 @@
       <c r="H260">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I260" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/268.html</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>269</v>
       </c>
@@ -8252,8 +9290,12 @@
       <c r="H261">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I261" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/269.html</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>270</v>
       </c>
@@ -8278,8 +9320,12 @@
       <c r="H262">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I262" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/270.html</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>271</v>
       </c>
@@ -8304,8 +9350,12 @@
       <c r="H263">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I263" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/271.html</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>272</v>
       </c>
@@ -8330,8 +9380,12 @@
       <c r="H264">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I264" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/272.html</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>273</v>
       </c>
@@ -8356,8 +9410,12 @@
       <c r="H265">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I265" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/273.html</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>274</v>
       </c>
@@ -8382,8 +9440,12 @@
       <c r="H266">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I266" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/274.html</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>275</v>
       </c>
@@ -8408,8 +9470,12 @@
       <c r="H267">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/275.html</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>276</v>
       </c>
@@ -8434,8 +9500,12 @@
       <c r="H268">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I268" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/276.html</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>277</v>
       </c>
@@ -8460,8 +9530,12 @@
       <c r="H269">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I269" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/277.html</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>278</v>
       </c>
@@ -8486,8 +9560,12 @@
       <c r="H270">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I270" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/278.html</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>279</v>
       </c>
@@ -8512,8 +9590,12 @@
       <c r="H271">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I271" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/279.html</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>280</v>
       </c>
@@ -8538,8 +9620,12 @@
       <c r="H272">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I272" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/280.html</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>281</v>
       </c>
@@ -8564,8 +9650,12 @@
       <c r="H273">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I273" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/281.html</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>282</v>
       </c>
@@ -8590,8 +9680,12 @@
       <c r="H274">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I274" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/282.html</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>283</v>
       </c>
@@ -8616,8 +9710,12 @@
       <c r="H275">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I275" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/283.html</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>284</v>
       </c>
@@ -8642,8 +9740,12 @@
       <c r="H276">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I276" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/284.html</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>285</v>
       </c>
@@ -8668,8 +9770,12 @@
       <c r="H277">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I277" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/285.html</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>286</v>
       </c>
@@ -8694,8 +9800,12 @@
       <c r="H278">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I278" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/286.html</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>287</v>
       </c>
@@ -8720,8 +9830,12 @@
       <c r="H279">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I279" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/287.html</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>288</v>
       </c>
@@ -8746,8 +9860,12 @@
       <c r="H280">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I280" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/288.html</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>289</v>
       </c>
@@ -8772,8 +9890,12 @@
       <c r="H281">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I281" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/289.html</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>290</v>
       </c>
@@ -8798,8 +9920,12 @@
       <c r="H282">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I282" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/290.html</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>291</v>
       </c>
@@ -8824,8 +9950,12 @@
       <c r="H283">
         <v>10.933299999999999</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I283" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/291.html</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>292</v>
       </c>
@@ -8850,8 +9980,12 @@
       <c r="H284">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I284" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/292.html</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>293</v>
       </c>
@@ -8876,8 +10010,12 @@
       <c r="H285">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I285" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/293.html</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>294</v>
       </c>
@@ -8902,8 +10040,12 @@
       <c r="H286">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I286" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/294.html</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>295</v>
       </c>
@@ -8928,8 +10070,12 @@
       <c r="H287">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I287" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/295.html</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>296</v>
       </c>
@@ -8954,8 +10100,12 @@
       <c r="H288">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I288" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/296.html</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>298</v>
       </c>
@@ -8980,8 +10130,12 @@
       <c r="H289">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I289" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/298.html</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>299</v>
       </c>
@@ -9006,8 +10160,12 @@
       <c r="H290">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I290" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/299.html</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>300</v>
       </c>
@@ -9032,8 +10190,12 @@
       <c r="H291">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I291" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/300.html</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>301</v>
       </c>
@@ -9058,8 +10220,12 @@
       <c r="H292">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I292" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/301.html</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>302</v>
       </c>
@@ -9084,8 +10250,12 @@
       <c r="H293">
         <v>11.783300000000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I293" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/302.html</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>303</v>
       </c>
@@ -9110,8 +10280,12 @@
       <c r="H294">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I294" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/303.html</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>304</v>
       </c>
@@ -9136,8 +10310,12 @@
       <c r="H295">
         <v>-74.006</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I295" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/304.html</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>307</v>
       </c>
@@ -9162,8 +10340,12 @@
       <c r="H296">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I296" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/307.html</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>308</v>
       </c>
@@ -9188,8 +10370,12 @@
       <c r="H297">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I297" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/308.html</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>309</v>
       </c>
@@ -9214,8 +10400,12 @@
       <c r="H298">
         <v>11.783300000000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I298" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/309.html</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>310</v>
       </c>
@@ -9240,8 +10430,12 @@
       <c r="H299">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I299" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/310.html</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>311</v>
       </c>
@@ -9266,8 +10460,12 @@
       <c r="H300">
         <v>-71.059799999999996</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I300" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/311.html</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>312</v>
       </c>
@@ -9292,8 +10490,12 @@
       <c r="H301">
         <v>-87.65</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I301" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/312.html</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>313</v>
       </c>
@@ -9318,8 +10520,12 @@
       <c r="H302">
         <v>13.410500000000001</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I302" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/313.html</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>314</v>
       </c>
@@ -9344,8 +10550,12 @@
       <c r="H303">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I303" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/314.html</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>316</v>
       </c>
@@ -9370,8 +10580,12 @@
       <c r="H304">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I304" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/316.html</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>317</v>
       </c>
@@ -9396,8 +10610,12 @@
       <c r="H305">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I305" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/317.html</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>318</v>
       </c>
@@ -9422,8 +10640,12 @@
       <c r="H306">
         <v>13.410500000000001</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I306" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/318.html</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>319</v>
       </c>
@@ -9448,8 +10670,12 @@
       <c r="H307">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I307" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/319.html</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>320</v>
       </c>
@@ -9474,8 +10700,12 @@
       <c r="H308">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I308" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/320.html</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>321</v>
       </c>
@@ -9500,8 +10730,12 @@
       <c r="H309">
         <v>11.835599999999999</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I309" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/321.html</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>322</v>
       </c>
@@ -9526,8 +10760,12 @@
       <c r="H310">
         <v>11.835599999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I310" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/322.html</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>323</v>
       </c>
@@ -9552,8 +10790,12 @@
       <c r="H311">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I311" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/323.html</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>324</v>
       </c>
@@ -9578,8 +10820,12 @@
       <c r="H312">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I312" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/324.html</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>325</v>
       </c>
@@ -9604,8 +10850,12 @@
       <c r="H313">
         <v>10.6313</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I313" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/325.html</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>326</v>
       </c>
@@ -9630,8 +10880,12 @@
       <c r="H314">
         <v>10.6313</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I314" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/326.html</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>327</v>
       </c>
@@ -9656,8 +10910,12 @@
       <c r="H315">
         <v>10.6313</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I315" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/327.html</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>328</v>
       </c>
@@ -9682,8 +10940,12 @@
       <c r="H316">
         <v>10.6313</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I316" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/328.html</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>329</v>
       </c>
@@ -9708,8 +10970,12 @@
       <c r="H317">
         <v>10.6313</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I317" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/329.html</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>330</v>
       </c>
@@ -9734,8 +11000,12 @@
       <c r="H318">
         <v>10.6313</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I318" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/330.html</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>331</v>
       </c>
@@ -9760,8 +11030,12 @@
       <c r="H319">
         <v>10.6313</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I319" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/331.html</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>332</v>
       </c>
@@ -9786,8 +11060,12 @@
       <c r="H320">
         <v>10.6313</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I320" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/332.html</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>333</v>
       </c>
@@ -9812,8 +11090,12 @@
       <c r="H321">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I321" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/333.html</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>334</v>
       </c>
@@ -9838,8 +11120,12 @@
       <c r="H322">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I322" t="str">
+        <f t="shared" si="4"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/334.html</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>335</v>
       </c>
@@ -9864,8 +11150,12 @@
       <c r="H323">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I323" t="str">
+        <f t="shared" ref="I323:I371" si="5">CONCATENATE("https://c-re-te.github.io/web-catalogue/schede/", A323, ".html")</f>
+        <v>https://c-re-te.github.io/web-catalogue/schede/335.html</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>336</v>
       </c>
@@ -9890,8 +11180,12 @@
       <c r="H324">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I324" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/336.html</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>337</v>
       </c>
@@ -9916,8 +11210,12 @@
       <c r="H325">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I325" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/337.html</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>338</v>
       </c>
@@ -9942,8 +11240,12 @@
       <c r="H326">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I326" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/338.html</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>339</v>
       </c>
@@ -9968,8 +11270,12 @@
       <c r="H327">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I327" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/339.html</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>340</v>
       </c>
@@ -9994,8 +11300,12 @@
       <c r="H328">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I328" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/340.html</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>341</v>
       </c>
@@ -10020,8 +11330,12 @@
       <c r="H329">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I329" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/341.html</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>342</v>
       </c>
@@ -10046,8 +11360,12 @@
       <c r="H330">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I330" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/342.html</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>343</v>
       </c>
@@ -10072,8 +11390,12 @@
       <c r="H331">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I331" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/343.html</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>344</v>
       </c>
@@ -10098,8 +11420,12 @@
       <c r="H332">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I332" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/344.html</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>345</v>
       </c>
@@ -10124,8 +11450,12 @@
       <c r="H333">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I333" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/345.html</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>346</v>
       </c>
@@ -10150,8 +11480,12 @@
       <c r="H334">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I334" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/346.html</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>347</v>
       </c>
@@ -10176,8 +11510,12 @@
       <c r="H335">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I335" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/347.html</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>348</v>
       </c>
@@ -10202,8 +11540,12 @@
       <c r="H336">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I336" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/348.html</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>349</v>
       </c>
@@ -10228,8 +11570,12 @@
       <c r="H337">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I337" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/349.html</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>350</v>
       </c>
@@ -10254,8 +11600,12 @@
       <c r="H338">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I338" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/350.html</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>351</v>
       </c>
@@ -10280,8 +11630,12 @@
       <c r="H339">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I339" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/351.html</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>352</v>
       </c>
@@ -10306,8 +11660,12 @@
       <c r="H340">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I340" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/352.html</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>353</v>
       </c>
@@ -10332,8 +11690,12 @@
       <c r="H341">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I341" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/353.html</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>354</v>
       </c>
@@ -10358,8 +11720,12 @@
       <c r="H342">
         <v>11.338699999999999</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I342" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/354.html</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>355</v>
       </c>
@@ -10384,8 +11750,12 @@
       <c r="H343">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I343" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/355.html</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>357</v>
       </c>
@@ -10410,8 +11780,12 @@
       <c r="H344">
         <v>16.866700000000002</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I344" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/357.html</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>358</v>
       </c>
@@ -10436,8 +11810,12 @@
       <c r="H345">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I345" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/358.html</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>359</v>
       </c>
@@ -10462,8 +11840,12 @@
       <c r="H346">
         <v>12.1822</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I346" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/359.html</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>360</v>
       </c>
@@ -10488,8 +11870,12 @@
       <c r="H347">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I347" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/360.html</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>362</v>
       </c>
@@ -10514,8 +11900,12 @@
       <c r="H348">
         <v>11.933299999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I348" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/362.html</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>363</v>
       </c>
@@ -10540,8 +11930,12 @@
       <c r="H349">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I349" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/363.html</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>365</v>
       </c>
@@ -10566,8 +11960,12 @@
       <c r="H350">
         <v>11.904590000000001</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I350" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/365.html</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>366</v>
       </c>
@@ -10592,8 +11990,12 @@
       <c r="H351">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I351" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/366.html</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>367</v>
       </c>
@@ -10618,8 +12020,12 @@
       <c r="H352">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I352" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/367.html</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>368</v>
       </c>
@@ -10644,8 +12050,12 @@
       <c r="H353">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I353" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/368.html</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>369</v>
       </c>
@@ -10670,8 +12080,12 @@
       <c r="H354">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I354" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/369.html</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>370</v>
       </c>
@@ -10696,8 +12110,12 @@
       <c r="H355">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I355" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/370.html</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>371</v>
       </c>
@@ -10722,8 +12140,12 @@
       <c r="H356">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I356" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/371.html</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>372</v>
       </c>
@@ -10748,8 +12170,12 @@
       <c r="H357">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I357" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/372.html</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>373</v>
       </c>
@@ -10774,8 +12200,12 @@
       <c r="H358">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I358" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/373.html</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>374</v>
       </c>
@@ -10800,8 +12230,12 @@
       <c r="H359">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I359" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/374.html</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>375</v>
       </c>
@@ -10826,8 +12260,12 @@
       <c r="H360">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I360" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/375.html</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>376</v>
       </c>
@@ -10852,8 +12290,12 @@
       <c r="H361">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I361" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/376.html</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>377</v>
       </c>
@@ -10878,8 +12320,12 @@
       <c r="H362">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I362" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/377.html</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>378</v>
       </c>
@@ -10904,8 +12350,12 @@
       <c r="H363">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I363" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/378.html</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>379</v>
       </c>
@@ -10930,8 +12380,12 @@
       <c r="H364">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I364" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/379.html</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>380</v>
       </c>
@@ -10956,8 +12410,12 @@
       <c r="H365">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I365" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/380.html</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>381</v>
       </c>
@@ -10982,8 +12440,12 @@
       <c r="H366">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I366" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/381.html</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>382</v>
       </c>
@@ -11008,8 +12470,12 @@
       <c r="H367">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I367" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/382.html</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>383</v>
       </c>
@@ -11034,8 +12500,12 @@
       <c r="H368">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I368" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/383.html</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>384</v>
       </c>
@@ -11060,8 +12530,12 @@
       <c r="H369">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I369" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/384.html</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>385</v>
       </c>
@@ -11086,8 +12560,12 @@
       <c r="H370">
         <v>11.6196</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I370" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/385.html</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>386</v>
       </c>
@@ -11111,6 +12589,10 @@
       </c>
       <c r="H371">
         <v>11.6196</v>
+      </c>
+      <c r="I371" t="str">
+        <f t="shared" si="5"/>
+        <v>https://c-re-te.github.io/web-catalogue/schede/386.html</v>
       </c>
     </row>
   </sheetData>
